--- a/Content/Xlsx/Source/A.xlsx
+++ b/Content/Xlsx/Source/A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Key2</t>
   </si>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>/Script/DataTableToolkit.XlsxStructExample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(X=123.000000,Y=1.000000,Z=3.000000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -813,7 +817,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -844,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
